--- a/tests_cases/TC-Print3-03.xlsx
+++ b/tests_cases/TC-Print3-03.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/igu/Documents/UADE/Testing de aplicacioones /TestingAplicaciones-TPO/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ignacio\Documents\GitHub\TestingAplicaciones--Jarron-Shang--TPO\tests_cases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E23A9EE-5BD6-7243-9B8F-6A3BA754143B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59027A5E-6201-49F3-A00B-DCCD00FB7803}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="760" windowWidth="14660" windowHeight="17640" xr2:uid="{D25F4DC2-856B-BD4F-8D8D-2077668DD2F1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D25F4DC2-856B-BD4F-8D8D-2077668DD2F1}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -104,24 +104,12 @@
     <t>El usuario deberia tener cuenta</t>
   </si>
   <si>
-    <t>URL: quierocomprar.com</t>
-  </si>
-  <si>
     <t>Abrir un navegador web : Google Chrome</t>
   </si>
   <si>
-    <t>Ingresar a la pagina quierocomprar.com</t>
-  </si>
-  <si>
     <t>Se deberia entrar a la pagina deseada</t>
   </si>
   <si>
-    <t>Camino alternativo</t>
-  </si>
-  <si>
-    <t>Normal</t>
-  </si>
-  <si>
     <t>Test del botton para volver al homePage</t>
   </si>
   <si>
@@ -155,20 +143,20 @@
     <t>Deberia volver a la Home Page</t>
   </si>
   <si>
-    <t>Clickaer en el carrito</t>
-  </si>
-  <si>
-    <t>La pagina mostrar los prodcutos en el carrito</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hacer click el boton de voler </t>
+    <t>URL:  http://127.0.0.1:5000</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>Ingresar a la pagina http://127.0.0.1:5000</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -191,6 +179,7 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -234,6 +223,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -471,7 +468,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -543,15 +540,27 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -588,17 +597,11 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -606,15 +609,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -931,34 +929,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2D36A19-2677-574C-8EC2-0AD18FFA1610}">
-  <dimension ref="A1:E35"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+      <selection activeCell="D22" sqref="D22:E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="17" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="E1" s="31"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D1" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="35"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -972,7 +970,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
@@ -981,26 +979,26 @@
       <c r="D3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="27">
+      <c r="E3" s="26">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="C5" s="12"/>
       <c r="D5" s="12"/>
       <c r="E5" s="12"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="25" t="s">
         <v>8</v>
       </c>
       <c r="D7" s="14" t="s">
@@ -1010,82 +1008,83 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A8" s="16">
         <v>1</v>
       </c>
-      <c r="B8" s="44" t="s">
+      <c r="B8" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="45"/>
+      <c r="C8" s="47"/>
       <c r="D8" s="18">
         <v>1</v>
       </c>
-      <c r="E8" s="17" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E8" s="48" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="18">
         <v>2</v>
       </c>
-      <c r="B9" s="46" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" s="47"/>
+      <c r="B9" s="44" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="45"/>
       <c r="D9" s="18">
         <v>2</v>
       </c>
-      <c r="E9" s="25" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E9" s="48" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="49"/>
+    </row>
+    <row r="10" spans="1:8" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="18">
         <v>3</v>
       </c>
-      <c r="B10" s="44" t="s">
+      <c r="B10" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="45"/>
+      <c r="C10" s="47"/>
       <c r="D10" s="18">
         <v>3</v>
       </c>
       <c r="E10" s="17"/>
     </row>
-    <row r="11" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="48">
+    <row r="11" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="27">
         <v>4</v>
       </c>
-      <c r="B11" s="44" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" s="45"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="32" t="s">
+      <c r="B11" s="46" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="47"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" s="35"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="36"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="33"/>
-      <c r="B15" s="37"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="39"/>
-    </row>
-    <row r="16" spans="1:5" ht="24" x14ac:dyDescent="0.2">
+      <c r="B14" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="39"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="40"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="37"/>
+      <c r="B15" s="41"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="43"/>
+    </row>
+    <row r="16" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A16" s="19" t="s">
         <v>11</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C16" s="21"/>
       <c r="D16" s="19" t="s">
@@ -1095,232 +1094,80 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="40" t="s">
+      <c r="B18" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="41"/>
-      <c r="D18" s="42" t="s">
+      <c r="C18" s="29"/>
+      <c r="D18" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="E18" s="43"/>
-    </row>
-    <row r="19" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E18" s="31"/>
+    </row>
+    <row r="19" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="24">
         <v>1</v>
       </c>
-      <c r="B19" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="C19" s="29"/>
-      <c r="D19" s="28" t="s">
+      <c r="B19" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="33"/>
+      <c r="D19" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="E19" s="29"/>
-    </row>
-    <row r="20" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E19" s="33"/>
+    </row>
+    <row r="20" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="24">
         <v>2</v>
       </c>
-      <c r="B20" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" s="29"/>
-      <c r="D20" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="E20" s="29"/>
-    </row>
-    <row r="21" spans="1:5" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="33"/>
+      <c r="D20" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20" s="33"/>
+    </row>
+    <row r="21" spans="1:5" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="24">
         <v>3</v>
       </c>
-      <c r="B21" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="C21" s="29"/>
-      <c r="D21" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="E21" s="29"/>
-    </row>
-    <row r="22" spans="1:5" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" s="33"/>
+      <c r="D21" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="E21" s="33"/>
+    </row>
+    <row r="22" spans="1:5" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="24">
         <v>4</v>
       </c>
-      <c r="B22" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="C22" s="29"/>
-      <c r="D22" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="E22" s="29"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="B25" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="C25" s="41"/>
-      <c r="D25" s="42" t="s">
-        <v>15</v>
-      </c>
-      <c r="E25" s="43"/>
-    </row>
-    <row r="26" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="24">
-        <v>1</v>
-      </c>
-      <c r="B26" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="C26" s="29"/>
-      <c r="D26" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="E26" s="29"/>
-    </row>
-    <row r="27" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="24">
-        <v>2</v>
-      </c>
-      <c r="B27" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="C27" s="29"/>
-      <c r="D27" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="E27" s="29"/>
-    </row>
-    <row r="28" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="24">
-        <v>3</v>
-      </c>
-      <c r="B28" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="C28" s="29"/>
-      <c r="D28" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="E28" s="29"/>
-    </row>
-    <row r="29" spans="1:5" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="24">
-        <v>4</v>
-      </c>
-      <c r="B29" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="C29" s="29"/>
-      <c r="D29" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="E29" s="29"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="B31" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="C31" s="41"/>
-      <c r="D31" s="42" t="s">
-        <v>15</v>
-      </c>
-      <c r="E31" s="43"/>
-    </row>
-    <row r="32" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="24">
-        <v>1</v>
-      </c>
-      <c r="B32" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="C32" s="29"/>
-      <c r="D32" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="E32" s="29"/>
-    </row>
-    <row r="33" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="24">
-        <v>2</v>
-      </c>
-      <c r="B33" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="C33" s="29"/>
-      <c r="D33" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="E33" s="29"/>
-    </row>
-    <row r="34" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="24">
-        <v>3</v>
-      </c>
-      <c r="B34" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="C34" s="29"/>
-      <c r="D34" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="E34" s="29"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="24">
-        <v>4</v>
-      </c>
-      <c r="B35" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="C35" s="29"/>
-      <c r="D35" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="E35" s="29"/>
-    </row>
+      <c r="B22" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" s="33"/>
+      <c r="D22" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="E22" s="33"/>
+    </row>
+    <row r="26" spans="1:5" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" ht="29.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" ht="29.1" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="37">
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B33:C33"/>
+  <mergeCells count="17">
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="B14:E15"/>
@@ -1330,10 +1177,14 @@
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/tests_cases/TC-Print3-03.xlsx
+++ b/tests_cases/TC-Print3-03.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ignacio\Documents\GitHub\TestingAplicaciones--Jarron-Shang--TPO\tests_cases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59027A5E-6201-49F3-A00B-DCCD00FB7803}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14C67CA9-A6E5-4060-B30B-A925D9A7A9EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D25F4DC2-856B-BD4F-8D8D-2077668DD2F1}"/>
   </bookViews>
@@ -116,9 +116,6 @@
     <t>TC-Print3-03</t>
   </si>
   <si>
-    <t>HU-6</t>
-  </si>
-  <si>
     <t>Verificar que los botones para volver a la home Page funcionen</t>
   </si>
   <si>
@@ -150,6 +147,9 @@
   </si>
   <si>
     <t>Ingresar a la pagina http://127.0.0.1:5000</t>
+  </si>
+  <si>
+    <t>PE-10</t>
   </si>
 </sst>
 </file>
@@ -245,7 +245,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -288,17 +288,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -479,13 +468,13 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -504,16 +493,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -525,12 +514,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -540,7 +523,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -549,70 +532,76 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -931,8 +920,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2D36A19-2677-574C-8EC2-0AD18FFA1610}">
   <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22:E22"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -951,10 +940,10 @@
       <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="34" t="s">
+      <c r="D1" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="35"/>
+      <c r="E1" s="29"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -979,7 +968,7 @@
       <c r="D3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="26">
+      <c r="E3" s="24">
         <v>2</v>
       </c>
     </row>
@@ -988,7 +977,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C5" s="12"/>
       <c r="D5" s="12"/>
@@ -998,7 +987,7 @@
       <c r="A7" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="23" t="s">
         <v>8</v>
       </c>
       <c r="D7" s="14" t="s">
@@ -1012,152 +1001,152 @@
       <c r="A8" s="16">
         <v>1</v>
       </c>
-      <c r="B8" s="46" t="s">
+      <c r="B8" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="47"/>
+      <c r="C8" s="45"/>
       <c r="D8" s="18">
         <v>1</v>
       </c>
-      <c r="E8" s="48" t="s">
-        <v>35</v>
+      <c r="E8" s="26" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="18">
         <v>2</v>
       </c>
-      <c r="B9" s="44" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="45"/>
+      <c r="B9" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="43"/>
       <c r="D9" s="18">
         <v>2</v>
       </c>
-      <c r="E9" s="48" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="49"/>
+      <c r="E9" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="H9" s="27"/>
     </row>
     <row r="10" spans="1:8" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="18">
         <v>3</v>
       </c>
-      <c r="B10" s="46" t="s">
+      <c r="B10" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="47"/>
+      <c r="C10" s="45"/>
       <c r="D10" s="18">
         <v>3</v>
       </c>
       <c r="E10" s="17"/>
     </row>
     <row r="11" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="27">
+      <c r="A11" s="25">
         <v>4</v>
       </c>
-      <c r="B11" s="46" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="47"/>
+      <c r="B11" s="44" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="45"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="36" t="s">
+      <c r="A14" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="38" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" s="39"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="40"/>
+      <c r="B14" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="34"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="37"/>
-      <c r="B15" s="41"/>
-      <c r="C15" s="42"/>
-      <c r="D15" s="42"/>
-      <c r="E15" s="43"/>
+      <c r="A15" s="31"/>
+      <c r="B15" s="35"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="37"/>
     </row>
     <row r="16" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A16" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" s="21"/>
+      <c r="B16" s="48" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="49"/>
       <c r="D16" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="E16" s="22" t="s">
+      <c r="E16" s="20" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="23" t="s">
+      <c r="A18" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="28" t="s">
+      <c r="B18" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="29"/>
-      <c r="D18" s="30" t="s">
+      <c r="C18" s="39"/>
+      <c r="D18" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="E18" s="31"/>
+      <c r="E18" s="41"/>
     </row>
     <row r="19" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="24">
+      <c r="A19" s="22">
         <v>1</v>
       </c>
-      <c r="B19" s="32" t="s">
+      <c r="B19" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="33"/>
-      <c r="D19" s="32" t="s">
+      <c r="C19" s="47"/>
+      <c r="D19" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="E19" s="33"/>
+      <c r="E19" s="47"/>
     </row>
     <row r="20" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="24">
+      <c r="A20" s="22">
         <v>2</v>
       </c>
-      <c r="B20" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="C20" s="33"/>
-      <c r="D20" s="32" t="s">
+      <c r="B20" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" s="47"/>
+      <c r="D20" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="E20" s="33"/>
+      <c r="E20" s="47"/>
     </row>
     <row r="21" spans="1:5" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="24">
+      <c r="A21" s="22">
         <v>3</v>
       </c>
-      <c r="B21" s="32" t="s">
+      <c r="B21" s="46" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="47"/>
+      <c r="D21" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="C21" s="33"/>
-      <c r="D21" s="32" t="s">
+      <c r="E21" s="47"/>
+    </row>
+    <row r="22" spans="1:5" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="22">
+        <v>4</v>
+      </c>
+      <c r="B22" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="E21" s="33"/>
-    </row>
-    <row r="22" spans="1:5" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="24">
-        <v>4</v>
-      </c>
-      <c r="B22" s="32" t="s">
+      <c r="C22" s="47"/>
+      <c r="D22" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="C22" s="33"/>
-      <c r="D22" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="E22" s="33"/>
+      <c r="E22" s="47"/>
     </row>
     <row r="26" spans="1:5" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="27" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1167,7 +1156,16 @@
     <row r="33" ht="29.1" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="34" ht="29.1" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="18">
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="B14:E15"/>
@@ -1177,14 +1175,6 @@
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
